--- a/milestones/summer24--sft221-nbb-2/Documents/Testing/Tests Documents/Black Box Tests/black-box-test-cases.xlsx
+++ b/milestones/summer24--sft221-nbb-2/Documents/Testing/Tests Documents/Black Box Tests/black-box-test-cases.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Storage\SCHOOL\summer-2024\summer24--sft221-nbb-2\Documents\Testing\Tests Documents\Black Box Tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SFT221\summer24--sft221-nbb-2\Documents\Testing\Tests Documents\Black Box Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F36DDB-1F56-4D27-AE43-C7951EBF65E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B513BF-E219-4422-BC0E-3DBAEAC26030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Declaration" sheetId="2" r:id="rId1"/>
-    <sheet name="isValidDestination" sheetId="6" r:id="rId2"/>
-    <sheet name="calculateAvailableSpace" sheetId="3" r:id="rId3"/>
+    <sheet name="calculateAvailableSpace" sheetId="3" r:id="rId2"/>
+    <sheet name="isValidDestination" sheetId="6" r:id="rId3"/>
     <sheet name="isValidPoint" sheetId="7" r:id="rId4"/>
     <sheet name="findTruckForShipment" sheetId="1" r:id="rId5"/>
     <sheet name="distance" sheetId="4" r:id="rId6"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="144">
   <si>
     <t>SFT 221 Project</t>
   </si>
@@ -154,9 +154,6 @@
   </si>
   <si>
     <t>-1 or error message</t>
-  </si>
-  <si>
-    <t>package = Aany valid package.</t>
   </si>
   <si>
     <t>trucks[] = An array of valid trucks</t>
@@ -276,20 +273,10 @@
     <t>Route: Path from {0, 0} to {4, 4}</t>
   </si>
   <si>
-    <t>start = {3, 24}</t>
-  </si>
-  <si>
-    <t>dest = {5,24}</t>
-  </si>
-  <si>
     <t>Route: Empty path or an indication of no path found</t>
   </si>
   <si>
     <t>Start and Dest are equal</t>
-  </si>
-  <si>
-    <t>1. Call the shortestPath function and pass it a valid map as well as 2 different  points that are within buildings and are thus invalid.
-2. Examine the route and make sure it is correct.</t>
   </si>
   <si>
     <t>1. Call the shortestPath function and pass it a valid map as well as 2 equal valid points.
@@ -330,18 +317,6 @@
     <t>FUNCTION: isValidDestination</t>
   </si>
   <si>
-    <t>FDV01</t>
-  </si>
-  <si>
-    <t>FDV02</t>
-  </si>
-  <si>
-    <t>FDV03</t>
-  </si>
-  <si>
-    <t>FDV04</t>
-  </si>
-  <si>
     <t>map =map from populateMap()</t>
   </si>
   <si>
@@ -379,9 +354,6 @@
   </si>
   <si>
     <t>map = NULL</t>
-  </si>
-  <si>
-    <t>NULL map test</t>
   </si>
   <si>
     <t>1. assign an NULL value to map
@@ -539,6 +511,22 @@
   </si>
   <si>
     <t>BB_SHP001</t>
+  </si>
+  <si>
+    <t>Empty map test</t>
+  </si>
+  <si>
+    <t>package = Any valid package.</t>
+  </si>
+  <si>
+    <t>1. Call the shortestPath function and pass it a valid map as well as 2 different  points that are invalid.
+2. Examine the route and make sure it is correct.</t>
+  </si>
+  <si>
+    <t>start = {3, 28}</t>
+  </si>
+  <si>
+    <t>dest = {5,29}</t>
   </si>
 </sst>
 </file>
@@ -764,7 +752,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -856,18 +844,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1155,12 +1139,12 @@
       <selection activeCell="B10" sqref="B10:I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" ht="26" x14ac:dyDescent="0.6">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -1173,7 +1157,7 @@
       <c r="H1" s="18"/>
       <c r="I1" s="19"/>
     </row>
-    <row r="3" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="20" t="s">
         <v>1</v>
       </c>
@@ -1186,7 +1170,7 @@
       <c r="H3" s="21"/>
       <c r="I3" s="21"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
         <v>14</v>
       </c>
@@ -1201,7 +1185,7 @@
       <c r="H5" s="22"/>
       <c r="I5" s="23"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="15"/>
       <c r="B6" s="7" t="s">
         <v>17</v>
@@ -1214,7 +1198,7 @@
       <c r="H6" s="7"/>
       <c r="I6" s="8"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="15"/>
       <c r="B7" s="7" t="s">
         <v>18</v>
@@ -1227,7 +1211,7 @@
       <c r="H7" s="7"/>
       <c r="I7" s="8"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="15"/>
       <c r="B8" s="7" t="s">
         <v>19</v>
@@ -1240,7 +1224,7 @@
       <c r="H8" s="7"/>
       <c r="I8" s="8"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="15"/>
       <c r="B9" s="7" t="s">
         <v>20</v>
@@ -1253,7 +1237,7 @@
       <c r="H9" s="7"/>
       <c r="I9" s="8"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="16"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -1264,7 +1248,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="10"/>
     </row>
-    <row r="12" spans="1:9" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="82.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
         <v>2</v>
       </c>
@@ -1295,27 +1279,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A628785-1246-498A-9295-C06BCB9FB1F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7B2243F-1AED-0646-A381-E85BF742B2DB}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="6.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.21875" customWidth="1"/>
+    <col min="1" max="1" width="14.453125" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.90625" customWidth="1"/>
+    <col min="4" max="4" width="33.81640625" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.08984375" customWidth="1"/>
+    <col min="7" max="7" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -1326,7 +1311,7 @@
       <c r="H1" s="25"/>
       <c r="I1" s="26"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="27" t="s">
         <v>4</v>
       </c>
@@ -1342,18 +1327,18 @@
       <c r="E2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="31"/>
+      <c r="F2" s="30"/>
       <c r="G2" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="31" t="s">
         <v>9</v>
       </c>
       <c r="I2" s="27" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="28"/>
       <c r="B3" s="28"/>
       <c r="C3" s="28"/>
@@ -1365,110 +1350,110 @@
         <v>13</v>
       </c>
       <c r="G3" s="28"/>
-      <c r="H3" s="33"/>
+      <c r="H3" s="32"/>
       <c r="I3" s="28"/>
     </row>
-    <row r="4" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B4" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>93</v>
+      <c r="C4" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G4" s="3">
+        <v>106</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G4" s="2">
         <v>1</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B5" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>95</v>
+      <c r="C5" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G5" s="3">
+        <v>113</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G5" s="2">
         <v>0</v>
       </c>
-      <c r="H5" s="3"/>
+      <c r="H5" s="2"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B6" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>98</v>
+      <c r="C6" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="G6" s="3">
+        <v>114</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G6" s="2">
         <v>0</v>
       </c>
-      <c r="H6" s="3"/>
+      <c r="H6" s="2"/>
       <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B7" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>102</v>
+      <c r="C7" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
+        <v>117</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1488,28 +1473,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7B2243F-1AED-0646-A381-E85BF742B2DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A628785-1246-498A-9295-C06BCB9FB1F5}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="6.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" customWidth="1"/>
-    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.88671875" customWidth="1"/>
-    <col min="4" max="4" width="33.77734375" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.109375" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="10.6328125" customWidth="1"/>
+    <col min="4" max="4" width="27.6328125" customWidth="1"/>
+    <col min="5" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -1520,7 +1502,7 @@
       <c r="H1" s="25"/>
       <c r="I1" s="26"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="27" t="s">
         <v>4</v>
       </c>
@@ -1536,18 +1518,18 @@
       <c r="E2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="30"/>
+      <c r="F2" s="33"/>
       <c r="G2" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="31" t="s">
         <v>9</v>
       </c>
       <c r="I2" s="27" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="28"/>
       <c r="B3" s="28"/>
       <c r="C3" s="28"/>
@@ -1559,110 +1541,110 @@
         <v>13</v>
       </c>
       <c r="G3" s="28"/>
-      <c r="H3" s="33"/>
+      <c r="H3" s="32"/>
       <c r="I3" s="28"/>
     </row>
-    <row r="4" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B4" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>117</v>
+      <c r="C4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="G4" s="2">
+        <v>81</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4" s="3">
         <v>1</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B5" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>119</v>
+      <c r="C5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="G5" s="2">
+        <v>81</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5" s="3">
         <v>0</v>
       </c>
-      <c r="H5" s="2"/>
+      <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B6" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>119</v>
+      <c r="C6" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="G6" s="2">
+        <v>81</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6" s="3">
         <v>0</v>
       </c>
-      <c r="H6" s="2"/>
+      <c r="H6" s="3"/>
       <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>125</v>
+      <c r="D7" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="G7" s="2">
-        <v>1</v>
-      </c>
-      <c r="H7" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1689,20 +1671,20 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="6.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.21875" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" customWidth="1"/>
+    <col min="1" max="1" width="6.1796875" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.36328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -1712,7 +1694,7 @@
       <c r="G1" s="25"/>
       <c r="H1" s="26"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="27" t="s">
         <v>4</v>
       </c>
@@ -1731,14 +1713,14 @@
       <c r="F2" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="31" t="s">
         <v>9</v>
       </c>
       <c r="H2" s="27" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="28"/>
       <c r="B3" s="28"/>
       <c r="C3" s="28"/>
@@ -1747,94 +1729,94 @@
         <v>12</v>
       </c>
       <c r="F3" s="28"/>
-      <c r="G3" s="33"/>
+      <c r="G3" s="32"/>
       <c r="H3" s="28"/>
     </row>
-    <row r="4" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="116" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="145" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="G7" s="3"/>
     </row>
@@ -1858,24 +1840,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A5" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="6.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
-    <col min="3" max="3" width="22.5546875" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.6328125" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" customWidth="1"/>
+    <col min="3" max="3" width="22.54296875" customWidth="1"/>
+    <col min="4" max="4" width="18.36328125" bestFit="1" customWidth="1"/>
     <col min="5" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -1888,7 +1870,7 @@
       <c r="J1" s="25"/>
       <c r="K1" s="26"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="27" t="s">
         <v>4</v>
       </c>
@@ -1906,18 +1888,18 @@
       </c>
       <c r="F2" s="30"/>
       <c r="G2" s="30"/>
-      <c r="H2" s="31"/>
+      <c r="H2" s="33"/>
       <c r="I2" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="32" t="s">
+      <c r="J2" s="31" t="s">
         <v>9</v>
       </c>
       <c r="K2" s="27" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="28"/>
       <c r="B3" s="28"/>
       <c r="C3" s="28"/>
@@ -1935,12 +1917,12 @@
         <v>22</v>
       </c>
       <c r="I3" s="28"/>
-      <c r="J3" s="33"/>
+      <c r="J3" s="32"/>
       <c r="K3" s="28"/>
     </row>
-    <row r="4" spans="1:12" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>15</v>
@@ -1970,9 +1952,9 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:12" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>15</v>
@@ -2002,9 +1984,9 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -2034,9 +2016,9 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:12" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="203" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>15</v>
@@ -2045,19 +2027,19 @@
         <v>37</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>30</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>39</v>
@@ -2088,22 +2070,22 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="6.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.21875" customWidth="1"/>
+    <col min="1" max="1" width="6.1796875" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.21875" customWidth="1"/>
+    <col min="4" max="4" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1796875" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -2114,7 +2096,7 @@
       <c r="H1" s="25"/>
       <c r="I1" s="26"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="27" t="s">
         <v>4</v>
       </c>
@@ -2130,18 +2112,18 @@
       <c r="E2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="31"/>
+      <c r="F2" s="33"/>
       <c r="G2" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="31" t="s">
         <v>9</v>
       </c>
       <c r="I2" s="27" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="28"/>
       <c r="B3" s="28"/>
       <c r="C3" s="28"/>
@@ -2153,125 +2135,125 @@
         <v>13</v>
       </c>
       <c r="G3" s="28"/>
-      <c r="H3" s="33"/>
+      <c r="H3" s="32"/>
       <c r="I3" s="28"/>
     </row>
-    <row r="4" spans="1:10" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="174" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="H4" s="2">
         <v>4.2426399999999997</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="174" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="G5" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H5" s="3">
         <v>-1</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="174" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="G6" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H6">
         <v>-1</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="172.8" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="174" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2295,24 +2277,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40543444-1F56-044E-95D2-8BD3ED5AEEC7}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="6.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="14.109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="56.44140625" style="34" customWidth="1"/>
-    <col min="6" max="6" width="10" style="34" customWidth="1"/>
-    <col min="7" max="7" width="10" style="34" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" style="34" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.33203125" style="34"/>
-    <col min="10" max="10" width="7.6640625" style="34" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="6.33203125" style="34"/>
+    <col min="1" max="1" width="10.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.453125" customWidth="1"/>
+    <col min="5" max="5" width="53.6328125" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="45" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
         <v>3</v>
       </c>
@@ -2326,14 +2309,14 @@
       <c r="I1" s="25"/>
       <c r="J1" s="26"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="32" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="31" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="27" t="s">
@@ -2343,7 +2326,7 @@
         <v>7</v>
       </c>
       <c r="F2" s="30"/>
-      <c r="G2" s="31"/>
+      <c r="G2" s="33"/>
       <c r="H2" s="27" t="s">
         <v>8</v>
       </c>
@@ -2354,10 +2337,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
       <c r="D3" s="28"/>
       <c r="E3" s="1" t="s">
         <v>12</v>
@@ -2372,111 +2355,111 @@
       <c r="I3" s="28"/>
       <c r="J3" s="28"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" s="3" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="E4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="F4" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="G4" s="35" t="s">
+      <c r="G4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H4" s="34" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:10" s="3" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="E5" s="35" t="s">
+      <c r="C5" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F5" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="G5" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="H5" s="34" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D5" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="3" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="E6" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="F6" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="G6" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="H6" s="34" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="3" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="E7" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="G7" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="H7" s="34" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B8" s="2"/>
     </row>
   </sheetData>
@@ -2497,6 +2480,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010005F15B28F3A9F34C9CE3CB4B37C40C84" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e8c8c2621d0a566110d18afec2953c8d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="33505ad1-6434-4d17-87c1-413dd10139de" xmlns:ns3="c20c8556-24cc-421e-aa4c-ebdb7d2cdb1a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="91c8afe27044be736d649d52aac2a536" ns2:_="" ns3:_="">
     <xsd:import namespace="33505ad1-6434-4d17-87c1-413dd10139de"/>
@@ -2697,36 +2695,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F53E2559-C623-4E5D-90A4-D51F80761861}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F95A9E1-C126-4761-B605-F7F93C5B6CFB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="33505ad1-6434-4d17-87c1-413dd10139de"/>
-    <ds:schemaRef ds:uri="c20c8556-24cc-421e-aa4c-ebdb7d2cdb1a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2749,9 +2721,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F95A9E1-C126-4761-B605-F7F93C5B6CFB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F53E2559-C623-4E5D-90A4-D51F80761861}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="33505ad1-6434-4d17-87c1-413dd10139de"/>
+    <ds:schemaRef ds:uri="c20c8556-24cc-421e-aa4c-ebdb7d2cdb1a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/milestones/summer24--sft221-nbb-2/Documents/Testing/Tests Documents/Black Box Tests/black-box-test-cases.xlsx
+++ b/milestones/summer24--sft221-nbb-2/Documents/Testing/Tests Documents/Black Box Tests/black-box-test-cases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SFT221\summer24--sft221-nbb-2\Documents\Testing\Tests Documents\Black Box Tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Storage\SCHOOL\summer-2024\sft221-nbb\milestones\summer24--sft221-nbb-2\Documents\Testing\Tests Documents\Black Box Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B513BF-E219-4422-BC0E-3DBAEAC26030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA72331D-C887-4CF2-983E-D1C4C9EC1B87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Declaration" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="148">
   <si>
     <t>SFT 221 Project</t>
   </si>
@@ -527,6 +527,18 @@
   </si>
   <si>
     <t>dest = {5,29}</t>
+  </si>
+  <si>
+    <t>BB_IVP001</t>
+  </si>
+  <si>
+    <t>BB_IVP002</t>
+  </si>
+  <si>
+    <t>BB_IVP003</t>
+  </si>
+  <si>
+    <t>BB_IVP004</t>
   </si>
 </sst>
 </file>
@@ -1139,12 +1151,12 @@
       <selection activeCell="B10" sqref="B10:I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="26" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -1157,7 +1169,7 @@
       <c r="H1" s="18"/>
       <c r="I1" s="19"/>
     </row>
-    <row r="3" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A3" s="20" t="s">
         <v>1</v>
       </c>
@@ -1170,7 +1182,7 @@
       <c r="H3" s="21"/>
       <c r="I3" s="21"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>14</v>
       </c>
@@ -1185,7 +1197,7 @@
       <c r="H5" s="22"/>
       <c r="I5" s="23"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
       <c r="B6" s="7" t="s">
         <v>17</v>
@@ -1198,7 +1210,7 @@
       <c r="H6" s="7"/>
       <c r="I6" s="8"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="7" t="s">
         <v>18</v>
@@ -1211,7 +1223,7 @@
       <c r="H7" s="7"/>
       <c r="I7" s="8"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
       <c r="B8" s="7" t="s">
         <v>19</v>
@@ -1224,7 +1236,7 @@
       <c r="H8" s="7"/>
       <c r="I8" s="8"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
       <c r="B9" s="7" t="s">
         <v>20</v>
@@ -1237,7 +1249,7 @@
       <c r="H9" s="7"/>
       <c r="I9" s="8"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="16"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -1248,7 +1260,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="10"/>
     </row>
-    <row r="12" spans="1:9" ht="82.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>2</v>
       </c>
@@ -1286,19 +1298,19 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="6.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.453125" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.90625" customWidth="1"/>
-    <col min="4" max="4" width="33.81640625" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="33.85546875" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.08984375" customWidth="1"/>
-    <col min="7" max="7" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>104</v>
       </c>
@@ -1311,7 +1323,7 @@
       <c r="H1" s="25"/>
       <c r="I1" s="26"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>4</v>
       </c>
@@ -1338,7 +1350,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="28"/>
       <c r="B3" s="28"/>
       <c r="C3" s="28"/>
@@ -1353,7 +1365,7 @@
       <c r="H3" s="32"/>
       <c r="I3" s="28"/>
     </row>
-    <row r="4" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>127</v>
       </c>
@@ -1379,7 +1391,7 @@
       <c r="I4" s="2"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>128</v>
       </c>
@@ -1405,7 +1417,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>129</v>
       </c>
@@ -1431,7 +1443,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>130</v>
       </c>
@@ -1480,16 +1492,16 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="6.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="10.6328125" customWidth="1"/>
-    <col min="4" max="4" width="27.6328125" customWidth="1"/>
+    <col min="1" max="3" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" customWidth="1"/>
     <col min="5" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>80</v>
       </c>
@@ -1502,7 +1514,7 @@
       <c r="H1" s="25"/>
       <c r="I1" s="26"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>4</v>
       </c>
@@ -1529,7 +1541,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="28"/>
       <c r="B3" s="28"/>
       <c r="C3" s="28"/>
@@ -1544,7 +1556,7 @@
       <c r="H3" s="32"/>
       <c r="I3" s="28"/>
     </row>
-    <row r="4" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>123</v>
       </c>
@@ -1570,7 +1582,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>124</v>
       </c>
@@ -1596,7 +1608,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>125</v>
       </c>
@@ -1621,7 +1633,7 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>126</v>
       </c>
@@ -1667,22 +1679,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE84EB5A-E5F8-4BC1-BE3B-78E711C2368B}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="6.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.1796875" customWidth="1"/>
-    <col min="2" max="2" width="9.453125" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>94</v>
       </c>
@@ -1694,7 +1706,7 @@
       <c r="G1" s="25"/>
       <c r="H1" s="26"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>4</v>
       </c>
@@ -1720,7 +1732,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="28"/>
       <c r="B3" s="28"/>
       <c r="C3" s="28"/>
@@ -1732,9 +1744,9 @@
       <c r="G3" s="32"/>
       <c r="H3" s="28"/>
     </row>
-    <row r="4" spans="1:9" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>15</v>
@@ -1755,9 +1767,9 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>15</v>
@@ -1778,9 +1790,9 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:9" ht="116" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>15</v>
@@ -1799,9 +1811,9 @@
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:9" ht="145" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>15</v>
@@ -1844,18 +1856,18 @@
       <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="6.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6328125" customWidth="1"/>
-    <col min="2" max="2" width="11.453125" customWidth="1"/>
-    <col min="3" max="3" width="22.54296875" customWidth="1"/>
-    <col min="4" max="4" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>42</v>
       </c>
@@ -1870,7 +1882,7 @@
       <c r="J1" s="25"/>
       <c r="K1" s="26"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>4</v>
       </c>
@@ -1899,7 +1911,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="28"/>
       <c r="B3" s="28"/>
       <c r="C3" s="28"/>
@@ -1920,7 +1932,7 @@
       <c r="J3" s="32"/>
       <c r="K3" s="28"/>
     </row>
-    <row r="4" spans="1:12" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="180" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>134</v>
       </c>
@@ -1952,7 +1964,7 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:12" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="180" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>133</v>
       </c>
@@ -1984,7 +1996,7 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="180" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>132</v>
       </c>
@@ -2016,7 +2028,7 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:12" ht="203" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="225" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>131</v>
       </c>
@@ -2070,20 +2082,19 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="6.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.1796875" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1796875" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>43</v>
       </c>
@@ -2096,7 +2107,7 @@
       <c r="H1" s="25"/>
       <c r="I1" s="26"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>4</v>
       </c>
@@ -2123,7 +2134,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="28"/>
       <c r="B3" s="28"/>
       <c r="C3" s="28"/>
@@ -2138,7 +2149,7 @@
       <c r="H3" s="32"/>
       <c r="I3" s="28"/>
     </row>
-    <row r="4" spans="1:10" ht="174" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="195" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>127</v>
       </c>
@@ -2168,7 +2179,7 @@
       </c>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="174" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="195" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>128</v>
       </c>
@@ -2198,7 +2209,7 @@
       </c>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" ht="174" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="195" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>129</v>
       </c>
@@ -2227,7 +2238,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="174" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="195" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>130</v>
       </c>
@@ -2277,25 +2288,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40543444-1F56-044E-95D2-8BD3ED5AEEC7}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="6.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.453125" customWidth="1"/>
-    <col min="5" max="5" width="53.6328125" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" customWidth="1"/>
+    <col min="5" max="5" width="53.5703125" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="45" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>3</v>
       </c>
@@ -2309,7 +2320,7 @@
       <c r="I1" s="25"/>
       <c r="J1" s="26"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>4</v>
       </c>
@@ -2337,7 +2348,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="32"/>
       <c r="B3" s="32"/>
       <c r="C3" s="32"/>
@@ -2355,7 +2366,7 @@
       <c r="I3" s="28"/>
       <c r="J3" s="28"/>
     </row>
-    <row r="4" spans="1:10" s="3" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" s="3" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>138</v>
       </c>
@@ -2381,7 +2392,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="3" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" s="3" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>137</v>
       </c>
@@ -2407,7 +2418,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="3" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" s="3" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>136</v>
       </c>
@@ -2433,7 +2444,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="3" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" s="3" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>135</v>
       </c>
@@ -2459,7 +2470,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
     </row>
   </sheetData>
@@ -2480,18 +2491,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2696,14 +2707,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F95A9E1-C126-4761-B605-F7F93C5B6CFB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90B3EE6F-1B3E-4CA3-9F86-1519C65464D0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -2716,6 +2719,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="33505ad1-6434-4d17-87c1-413dd10139de"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F95A9E1-C126-4761-B605-F7F93C5B6CFB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
